--- a/slides/br_pib_1888_1905.xlsx
+++ b/slides/br_pib_1888_1905.xlsx
@@ -137,7 +137,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.21"/>
